--- a/Others/Mugdho RBM Nov'19.xlsx
+++ b/Others/Mugdho RBM Nov'19.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707E52D6-4497-4059-A852-F604281E7BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC076C4-9D59-462C-A37C-94861B7AA2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,7 +738,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:G25"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,12 +1075,6 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="1">
-        <f>SUM(F5:F18)</f>
-        <v>875</v>
-      </c>
-    </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
